--- a/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1112,7 +1112,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1669,7 +1669,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1112,7 +1112,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1669,7 +1669,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
@@ -623,7 +623,7 @@
         <v>35428</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31173</v>
+        <v>31098</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>37497</v>
@@ -632,7 +632,7 @@
         <v>0.9448272756647212</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8313457760734366</v>
+        <v>0.8293370118311407</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6324</v>
+        <v>6399</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05517272433527872</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1686542239265643</v>
+        <v>0.1706629881688593</v>
       </c>
     </row>
     <row r="6">
@@ -714,7 +714,7 @@
         <v>50394</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46306</v>
+        <v>46188</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>52444</v>
@@ -723,7 +723,7 @@
         <v>0.9609148657755355</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8829685851124144</v>
+        <v>0.8807088871724307</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6138</v>
+        <v>6256</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03908513422446444</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1170314148875857</v>
+        <v>0.1192911128275693</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>42366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36727</v>
+        <v>38229</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44344</v>
+        <v>44361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9350620620588298</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8106122296437787</v>
+        <v>0.8437543927823659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9787225052293516</v>
+        <v>0.9791062182942663</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>2942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8581</v>
+        <v>7079</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06493793794117018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02127749477064846</v>
+        <v>0.02089378170573369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1893877703562206</v>
+        <v>0.1562456072176337</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>64927</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57952</v>
+        <v>57808</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70101</v>
+        <v>70121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8551035209371348</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7632426554986531</v>
+        <v>0.7613365722428751</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9232409628189204</v>
+        <v>0.9235044875634708</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>11002</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5828</v>
+        <v>5808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17977</v>
+        <v>18121</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1448964790628652</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07675903718107967</v>
+        <v>0.07649551243652916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.236757344501347</v>
+        <v>0.2386634277571248</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>193115</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9144670599223602</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>18063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11015</v>
+        <v>11165</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27093</v>
+        <v>27246</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08553294007763979</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05216143688963878</v>
+        <v>0.0528698738353136</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1282940237792254</v>
+        <v>0.129017568104775</v>
       </c>
     </row>
     <row r="18">
@@ -1271,7 +1271,7 @@
         <v>68742</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65322</v>
+        <v>64334</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>69806</v>
@@ -1280,7 +1280,7 @@
         <v>0.9847522542908962</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9357621454799129</v>
+        <v>0.9216092675134412</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4484</v>
+        <v>5472</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01524774570910382</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06423785452008703</v>
+        <v>0.07839073248655877</v>
       </c>
     </row>
     <row r="9">
@@ -1362,7 +1362,7 @@
         <v>45647</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41435</v>
+        <v>41630</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>46639</v>
@@ -1371,7 +1371,7 @@
         <v>0.9787299919491079</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.888430024594593</v>
+        <v>0.8926039468013925</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5204</v>
+        <v>5009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02127000805089205</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1115699754054075</v>
+        <v>0.1073960531986076</v>
       </c>
     </row>
     <row r="12">
@@ -1453,7 +1453,7 @@
         <v>62840</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58197</v>
+        <v>59011</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>64708</v>
@@ -1462,7 +1462,7 @@
         <v>0.9711330016372079</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8993847458400934</v>
+        <v>0.9119512258951128</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6511</v>
+        <v>5697</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02886699836279203</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1006152541599073</v>
+        <v>0.08804877410488689</v>
       </c>
     </row>
     <row r="15">
@@ -1544,19 +1544,19 @@
         <v>221064</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9825576696208269</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
     </row>
     <row r="17">
@@ -1573,19 +1573,19 @@
         <v>3924</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9912</v>
+        <v>9999</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01744233037917304</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004541656458481174</v>
+        <v>0.004396352288719373</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04405352573317721</v>
+        <v>0.04444156029100683</v>
       </c>
     </row>
     <row r="18">
@@ -1753,19 +1753,19 @@
         <v>21952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17681</v>
+        <v>18279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24455</v>
+        <v>24462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8679935920468046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.699093582745571</v>
+        <v>0.7227540230365138</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9669594960832445</v>
+        <v>0.9672192434744367</v>
       </c>
     </row>
     <row r="5">
@@ -1782,19 +1782,19 @@
         <v>3339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7610</v>
+        <v>7012</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1320064079531954</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03304050391675541</v>
+        <v>0.03278075652556333</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.300906417254428</v>
+        <v>0.2772459769634856</v>
       </c>
     </row>
     <row r="6">
@@ -1844,7 +1844,7 @@
         <v>38870</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34819</v>
+        <v>34870</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>39851</v>
@@ -1853,7 +1853,7 @@
         <v>0.9753826076006019</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8737202591600763</v>
+        <v>0.8750179975303936</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5032</v>
+        <v>4981</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0246173923993981</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1262797408399245</v>
+        <v>0.1249820024696063</v>
       </c>
     </row>
     <row r="9">
@@ -2010,7 +2010,7 @@
         <v>43429</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39274</v>
+        <v>39372</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>45463</v>
@@ -2019,7 +2019,7 @@
         <v>0.9552515757736663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8638751624117262</v>
+        <v>0.8660299182806511</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6189</v>
+        <v>6091</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04474842422633368</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1361248375882758</v>
+        <v>0.13397008171935</v>
       </c>
     </row>
     <row r="15">
@@ -2101,19 +2101,19 @@
         <v>140279</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134566</v>
+        <v>133795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>143982</v>
+        <v>143902</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9566675311262756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9177086657736255</v>
+        <v>0.9124452583105171</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9819180548731533</v>
+        <v>0.9813779018436163</v>
       </c>
     </row>
     <row r="17">
@@ -2130,19 +2130,19 @@
         <v>6354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2651</v>
+        <v>2731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12067</v>
+        <v>12838</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04333246887372447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01808194512684678</v>
+        <v>0.01862209815638373</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08229133422637454</v>
+        <v>0.08755474168948214</v>
       </c>
     </row>
     <row r="18">
